--- a/output-tops.xlsx
+++ b/output-tops.xlsx
@@ -429,13 +429,13 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>49.664</v>
+        <v>3.356</v>
       </c>
       <c r="D2">
-        <v>48.322</v>
+        <v>3.356</v>
       </c>
       <c r="E2">
-        <v>48.322</v>
+        <v>2.685</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -446,13 +446,13 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>81.208</v>
+        <v>41.611</v>
       </c>
       <c r="D3">
-        <v>83.893</v>
+        <v>46.98</v>
       </c>
       <c r="E3">
-        <v>80.53700000000001</v>
+        <v>40.94</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -463,13 +463,13 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>88.59099999999999</v>
+        <v>65.101</v>
       </c>
       <c r="D4">
-        <v>89.262</v>
+        <v>68.456</v>
       </c>
       <c r="E4">
-        <v>88.59099999999999</v>
+        <v>62.416</v>
       </c>
     </row>
   </sheetData>

--- a/output-tops.xlsx
+++ b/output-tops.xlsx
@@ -19,13 +19,13 @@
     <t>Type of TOP</t>
   </si>
   <si>
-    <t>2020-01-02</t>
-  </si>
-  <si>
-    <t>2020-01-05</t>
-  </si>
-  <si>
-    <t>2020-01-11</t>
+    <t>2019-10-22</t>
+  </si>
+  <si>
+    <t>2019-11-15</t>
+  </si>
+  <si>
+    <t>2020-01-17</t>
   </si>
   <si>
     <t>1</t>
@@ -429,13 +429,13 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>49.664</v>
+        <v>54.362</v>
       </c>
       <c r="D2">
-        <v>48.322</v>
+        <v>51.678</v>
       </c>
       <c r="E2">
-        <v>48.322</v>
+        <v>46.309</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -446,13 +446,13 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>81.208</v>
+        <v>85.90600000000001</v>
       </c>
       <c r="D3">
-        <v>83.893</v>
+        <v>85.235</v>
       </c>
       <c r="E3">
-        <v>80.53700000000001</v>
+        <v>78.523</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -463,13 +463,13 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>88.59099999999999</v>
+        <v>89.93300000000001</v>
       </c>
       <c r="D4">
-        <v>89.262</v>
+        <v>91.946</v>
       </c>
       <c r="E4">
-        <v>88.59099999999999</v>
+        <v>87.248</v>
       </c>
     </row>
   </sheetData>

--- a/output-tops.xlsx
+++ b/output-tops.xlsx
@@ -19,13 +19,13 @@
     <t>Type of TOP</t>
   </si>
   <si>
-    <t>2019-10-22</t>
-  </si>
-  <si>
-    <t>2019-11-15</t>
-  </si>
-  <si>
-    <t>2020-01-17</t>
+    <t>2019-10-19</t>
+  </si>
+  <si>
+    <t>2019-12-12</t>
+  </si>
+  <si>
+    <t>2020-01-14</t>
   </si>
   <si>
     <t>1</t>
@@ -429,13 +429,13 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>54.362</v>
+        <v>3.356</v>
       </c>
       <c r="D2">
-        <v>51.678</v>
+        <v>4.698</v>
       </c>
       <c r="E2">
-        <v>46.309</v>
+        <v>4.027</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -446,13 +446,13 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>85.90600000000001</v>
+        <v>12.081</v>
       </c>
       <c r="D3">
-        <v>85.235</v>
+        <v>15.436</v>
       </c>
       <c r="E3">
-        <v>78.523</v>
+        <v>14.094</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -463,13 +463,13 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>89.93300000000001</v>
+        <v>22.819</v>
       </c>
       <c r="D4">
-        <v>91.946</v>
+        <v>34.899</v>
       </c>
       <c r="E4">
-        <v>87.248</v>
+        <v>36.242</v>
       </c>
     </row>
   </sheetData>
